--- a/NY_Tioga/Tioga_NY_cleaned.xlsx
+++ b/NY_Tioga/Tioga_NY_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITREPOS\gh_kessler\openelections_work\NY_Tioga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3407E968-A40F-49C8-A5B9-AB5402DE6AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCD9B8-4922-4C71-AAAD-47DCE2381CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="810" windowWidth="29040" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="810" windowWidth="29040" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1796,9 +1796,6 @@
     <t>Tom Reed - IND</t>
   </si>
   <si>
-    <t>Election_District</t>
-  </si>
-  <si>
     <t>Frederick J. Akshar II - REP</t>
   </si>
   <si>
@@ -1821,6 +1818,9 @@
   </si>
   <si>
     <t>Christopher S. Friend - IND</t>
+  </si>
+  <si>
+    <t>precinct</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A104" workbookViewId="0">
       <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
@@ -11817,9 +11817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11829,7 +11827,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B1" t="s">
         <v>575</v>
@@ -13326,7 +13324,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B1" t="s">
         <v>584</v>
@@ -14358,7 +14356,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14375,19 +14373,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
         <v>590</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>591</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" t="s">
         <v>592</v>
-      </c>
-      <c r="D1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E1" t="s">
-        <v>593</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
@@ -15474,7 +15472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7E95C7-A34E-4122-9771-F04CFF50800C}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15482,19 +15480,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C1" t="s">
         <v>595</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>596</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>597</v>
-      </c>
-      <c r="E1" t="s">
-        <v>598</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>

--- a/NY_Tioga/Tioga_NY_cleaned.xlsx
+++ b/NY_Tioga/Tioga_NY_cleaned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITREPOS\gh_kessler\openelections_work\NY_Tioga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCD9B8-4922-4C71-AAAD-47DCE2381CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11C1B3-D802-4092-AC2E-9FB9036C98BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="810" windowWidth="29040" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="810" windowWidth="29040" windowHeight="19780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="600">
   <si>
     <t>OFFICIAL RESULTS</t>
   </si>
@@ -1821,6 +1821,9 @@
   </si>
   <si>
     <t>precinct</t>
+  </si>
+  <si>
+    <t>WriteIn</t>
   </si>
 </sst>
 </file>
@@ -11817,7 +11820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11851,7 +11856,7 @@
         <v>581</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="J1" t="s">
         <v>582</v>
@@ -13305,7 +13310,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13345,7 +13350,7 @@
         <v>589</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="I1" t="s">
         <v>582</v>
@@ -14356,7 +14361,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14388,7 +14393,7 @@
         <v>592</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="G1" t="s">
         <v>582</v>
@@ -15472,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7E95C7-A34E-4122-9771-F04CFF50800C}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15495,7 +15500,7 @@
         <v>597</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="G1" t="s">
         <v>582</v>

--- a/NY_Tioga/Tioga_NY_cleaned.xlsx
+++ b/NY_Tioga/Tioga_NY_cleaned.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITREPOS\gh_kessler\openelections_work\NY_Tioga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C11C1B3-D802-4092-AC2E-9FB9036C98BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C291F7-B76B-4294-AB91-31BB7F849A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="810" windowWidth="29040" windowHeight="19780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="810" windowWidth="29040" windowHeight="19780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="presidential" sheetId="2" r:id="rId2"/>
-    <sheet name="congress_NY-23" sheetId="3" r:id="rId3"/>
-    <sheet name="statesen-52" sheetId="4" r:id="rId4"/>
-    <sheet name="statehou-124" sheetId="5" r:id="rId5"/>
+    <sheet name="congress_NY-22" sheetId="6" r:id="rId3"/>
+    <sheet name="congress_NY-23" sheetId="3" r:id="rId4"/>
+    <sheet name="statesen-52" sheetId="4" r:id="rId5"/>
+    <sheet name="statehou-124" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="606">
   <si>
     <t>OFFICIAL RESULTS</t>
   </si>
@@ -1824,6 +1825,24 @@
   </si>
   <si>
     <t>WriteIn</t>
+  </si>
+  <si>
+    <t>Anthony J. Brindisi - DEM</t>
+  </si>
+  <si>
+    <t>Anthony J. Brindisi - WOR</t>
+  </si>
+  <si>
+    <t>Anthony J. Brindisi - IND</t>
+  </si>
+  <si>
+    <t>Claudia Tenney - REP</t>
+  </si>
+  <si>
+    <t>Claudia Tenney - CON</t>
+  </si>
+  <si>
+    <t>Keith D. Price Jr. - LBT</t>
   </si>
 </sst>
 </file>
@@ -2265,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:N346"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView topLeftCell="B104" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11820,7 +11839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -13306,6 +13325,373 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336DB585-AC85-4B27-8C05-CA52B8A69E06}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I1" t="s">
+        <v>582</v>
+      </c>
+      <c r="J1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>213</v>
+      </c>
+      <c r="C2">
+        <v>269</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>278</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5">
+        <v>174</v>
+      </c>
+      <c r="C5">
+        <v>170</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>256</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <v>248</v>
+      </c>
+      <c r="C7">
+        <v>260</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>418</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>154</v>
+      </c>
+      <c r="C9">
+        <v>304</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10">
+        <v>467</v>
+      </c>
+      <c r="C10">
+        <v>369</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>256</v>
+      </c>
+      <c r="C11">
+        <v>292</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
@@ -14356,7 +14742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB97E9D-6647-4BF9-AD42-D016BC18C828}">
   <dimension ref="A1:H42"/>
   <sheetViews>
@@ -15473,7 +15859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7E95C7-A34E-4122-9771-F04CFF50800C}">
   <dimension ref="A1:H42"/>
   <sheetViews>
